--- a/part3/timing.xlsx
+++ b/part3/timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtsan\OneDrive\Documents\4th_semester\Cloud-Computing-Architecture-Project\part3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F86E74-3709-4156-AAE5-B2D90317CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD574E-4BD6-471F-B2B1-41E53608334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F2FEEF43-6FF8-4EC7-823B-F33547F0F06D}"/>
   </bookViews>
@@ -82,8 +82,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    <numFmt numFmtId="167" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-150,1]hh:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-150,1]hh:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,12 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +491,7 @@
   <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>1.00125</v>
+        <v>1.0008912037037037</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0013541666666668</v>
+        <v>1.0008912037037037</v>
       </c>
       <c r="D3" s="8">
-        <v>1.0013310185185185</v>
+        <v>1.0008912037037037</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
@@ -549,24 +549,24 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>1+48/60</f>
-        <v>1.8</v>
+        <f>1*60+17</f>
+        <v>77</v>
       </c>
       <c r="J3">
-        <f>1+57/60</f>
-        <v>1.95</v>
+        <f>1*60+17</f>
+        <v>77</v>
       </c>
       <c r="K3">
-        <f>1+53/60</f>
-        <v>1.8833333333333333</v>
+        <f>1*60+17</f>
+        <v>77</v>
       </c>
       <c r="L3">
         <f>AVERAGE(I3:K3)</f>
-        <v>1.8777777777777775</v>
+        <v>77</v>
       </c>
       <c r="M3">
         <f>_xlfn.STDEV.P(I3:K3)</f>
-        <v>6.1363116762151407E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>1.001423611111111</v>
+        <v>1.0016319444444444</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0014004629629629</v>
+        <v>1.0016203703703703</v>
       </c>
       <c r="D4" s="8">
-        <v>1.0014699074074074</v>
+        <v>1.0016203703703703</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
@@ -588,24 +588,24 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>2+3/60</f>
-        <v>2.0499999999999998</v>
+        <f>2*60+21</f>
+        <v>141</v>
       </c>
       <c r="J4">
-        <f>2+1/60</f>
-        <v>2.0166666666666666</v>
+        <f>2*60+20</f>
+        <v>140</v>
       </c>
       <c r="K4">
-        <f>2+7/60</f>
-        <v>2.1166666666666667</v>
+        <f>2*60+20</f>
+        <v>140</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L10" si="0">AVERAGE(I4:K4)</f>
-        <v>2.0611111111111113</v>
+        <v>140.33333333333334</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M10" si="1">_xlfn.STDEV.P(I4:K4)</f>
-        <v>4.1573970964154952E-2</v>
+        <f t="shared" ref="M4:M9" si="1">_xlfn.STDEV.P(I4:K4)</f>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0002083333333334</v>
+        <v>1.0002662037037038</v>
       </c>
       <c r="C5" s="4">
-        <v>1.0001967592592593</v>
+        <v>1.0002662037037038</v>
       </c>
       <c r="D5" s="8">
-        <v>1.0001967592592593</v>
+        <v>1.0002662037037038</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
@@ -627,24 +627,23 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <f>18/60</f>
-        <v>0.3</v>
+        <f>23</f>
+        <v>23</v>
       </c>
       <c r="J5">
-        <f>17/60</f>
-        <v>0.28333333333333333</v>
+        <f>23</f>
+        <v>23</v>
       </c>
       <c r="K5">
-        <f>17/60</f>
-        <v>0.28333333333333333</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>7.8567420131838601E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -652,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0019444444444445</v>
+        <v>1.0016898148148148</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0019907407407407</v>
+        <v>1.0016782407407407</v>
       </c>
       <c r="D6" s="8">
-        <v>1.0019907407407407</v>
+        <v>1.0016782407407407</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
@@ -666,24 +665,24 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <f>2+48/60</f>
-        <v>2.8</v>
+        <f>2*60+26</f>
+        <v>146</v>
       </c>
       <c r="J6">
-        <f>2+52/60</f>
-        <v>2.8666666666666667</v>
+        <f>2*60+25</f>
+        <v>145</v>
       </c>
       <c r="K6">
-        <f>2+52/60</f>
-        <v>2.8666666666666667</v>
+        <f>2*60+25</f>
+        <v>145</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>2.8444444444444446</v>
+        <v>145.33333333333334</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3.1426968052735545E-2</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -691,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>1.0012152777777779</v>
+        <v>1.0011921296296296</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0011921296296296</v>
+        <v>1.0011805555555555</v>
       </c>
       <c r="D7" s="8">
         <v>1.0012037037037036</v>
@@ -705,24 +704,24 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <f>1+45/60</f>
-        <v>1.75</v>
+        <f>1*60+43</f>
+        <v>103</v>
       </c>
       <c r="J7">
-        <f>1+43/60</f>
-        <v>1.7166666666666668</v>
+        <f>1*60+42</f>
+        <v>102</v>
       </c>
       <c r="K7">
-        <f>1+44/60</f>
-        <v>1.7333333333333334</v>
+        <f>1*60+44</f>
+        <v>104</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.7333333333333334</v>
+        <v>103</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>1.3608276348795386E-2</v>
+        <v>0.81649658092772603</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -730,13 +729,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>1.0004050925925927</v>
+        <v>1.0001273148148149</v>
       </c>
       <c r="C8" s="4">
-        <v>1.0003935185185184</v>
+        <v>1.0001157407407408</v>
       </c>
       <c r="D8" s="8">
-        <v>1.0004050925925927</v>
+        <v>1.0001273148148149</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
@@ -744,24 +743,23 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <f>35/60</f>
-        <v>0.58333333333333337</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="J8">
-        <f>34/60</f>
-        <v>0.56666666666666665</v>
+        <f>10</f>
+        <v>10</v>
       </c>
       <c r="K8">
-        <f>35/60</f>
-        <v>0.58333333333333337</v>
+        <v>11</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.57777777777777783</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>7.8567420131838862E-3</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -769,13 +767,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>1.0003356481481482</v>
+        <v>1.0003703703703704</v>
       </c>
       <c r="C9" s="4">
-        <v>1.0003356481481482</v>
+        <v>1.0003587962962963</v>
       </c>
       <c r="D9" s="8">
-        <v>1.0003472222222223</v>
+        <v>1.0003587962962963</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
@@ -783,24 +781,23 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <f>29/60</f>
-        <v>0.48333333333333334</v>
+        <f>32</f>
+        <v>32</v>
       </c>
       <c r="J9">
-        <f>29/60</f>
-        <v>0.48333333333333334</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <f>30/60</f>
-        <v>0.5</v>
+        <f>31</f>
+        <v>31</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.48888888888888893</v>
+        <v>31.333333333333332</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>7.8567420131838601E-3</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -808,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0032523148148149</v>
+        <v>1.0018055555555556</v>
       </c>
       <c r="C10" s="5">
-        <v>1.0029166666666667</v>
+        <v>1.0017939814814816</v>
       </c>
       <c r="D10" s="9">
-        <v>1.003287037037037</v>
+        <v>1.0018287037037037</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
@@ -822,24 +819,24 @@
         <v>7</v>
       </c>
       <c r="I10" s="1">
-        <f>4+41/60</f>
-        <v>4.6833333333333336</v>
+        <f>2*60+36</f>
+        <v>156</v>
       </c>
       <c r="J10" s="1">
-        <f>4+12/60</f>
-        <v>4.2</v>
+        <f>2*60+35</f>
+        <v>155</v>
       </c>
       <c r="K10" s="1">
-        <f>4+32/60</f>
-        <v>4.5333333333333332</v>
+        <f>2*60+38</f>
+        <v>158</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>4.4722222222222223</v>
+        <v>156.33333333333334</v>
       </c>
       <c r="M10" s="1">
         <f>_xlfn.STDEV.P(I10:K10)</f>
-        <v>0.2019962106966427</v>
+        <v>1.247219128924647</v>
       </c>
     </row>
   </sheetData>

--- a/part3/timing.xlsx
+++ b/part3/timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtsan\OneDrive\Documents\4th_semester\Cloud-Computing-Architecture-Project\part3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD574E-4BD6-471F-B2B1-41E53608334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7BD8A-BBA3-465E-A86D-29EC6B2D30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F2FEEF43-6FF8-4EC7-823B-F33547F0F06D}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0008912037037037</v>
+        <v>1.0013425925925925</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0008912037037037</v>
+        <v>1.0012731481481481</v>
       </c>
       <c r="D3" s="8">
-        <v>1.0008912037037037</v>
+        <v>1.0012962962962964</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
@@ -549,24 +549,24 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>1*60+17</f>
-        <v>77</v>
+        <f>1*60+56</f>
+        <v>116</v>
       </c>
       <c r="J3">
-        <f>1*60+17</f>
-        <v>77</v>
+        <f>1*60+50</f>
+        <v>110</v>
       </c>
       <c r="K3">
-        <f>1*60+17</f>
-        <v>77</v>
+        <f>1*60+52</f>
+        <v>112</v>
       </c>
       <c r="L3">
         <f>AVERAGE(I3:K3)</f>
-        <v>77</v>
+        <v>112.66666666666667</v>
       </c>
       <c r="M3">
         <f>_xlfn.STDEV.P(I3:K3)</f>
-        <v>0</v>
+        <v>2.4944382578492941</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0016319444444444</v>
+        <v>1.0015393518518518</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0016203703703703</v>
+        <v>1.0015393518518518</v>
       </c>
       <c r="D4" s="8">
-        <v>1.0016203703703703</v>
+        <v>1.0015277777777778</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
@@ -588,20 +588,20 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>2*60+21</f>
-        <v>141</v>
+        <f>2*60+13</f>
+        <v>133</v>
       </c>
       <c r="J4">
-        <f>2*60+20</f>
-        <v>140</v>
+        <f>2*60+13</f>
+        <v>133</v>
       </c>
       <c r="K4">
-        <f>2*60+20</f>
-        <v>140</v>
+        <f>2*60+12</f>
+        <v>132</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L10" si="0">AVERAGE(I4:K4)</f>
-        <v>140.33333333333334</v>
+        <v>132.66666666666666</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M9" si="1">_xlfn.STDEV.P(I4:K4)</f>
@@ -616,7 +616,7 @@
         <v>1.0002662037037038</v>
       </c>
       <c r="C5" s="4">
-        <v>1.0002662037037038</v>
+        <v>1.0002777777777778</v>
       </c>
       <c r="D5" s="8">
         <v>1.0002662037037038</v>
@@ -631,19 +631,18 @@
         <v>23</v>
       </c>
       <c r="J5">
-        <f>23</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>23</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -651,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0016898148148148</v>
+        <v>1.0016319444444444</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0016782407407407</v>
+        <v>1.0016435185185186</v>
       </c>
       <c r="D6" s="8">
-        <v>1.0016782407407407</v>
+        <v>1.0016319444444444</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
@@ -665,20 +664,20 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <f>2*60+26</f>
-        <v>146</v>
+        <f>2*60+21</f>
+        <v>141</v>
       </c>
       <c r="J6">
-        <f>2*60+25</f>
-        <v>145</v>
+        <f>2*60+22</f>
+        <v>142</v>
       </c>
       <c r="K6">
-        <f>2*60+25</f>
-        <v>145</v>
+        <f>2*60+21</f>
+        <v>141</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>145.33333333333334</v>
+        <v>141.33333333333334</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
@@ -690,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4">
+        <v>1.0011805555555555</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.0011921296296296</v>
       </c>
-      <c r="C7" s="4">
-        <v>1.0011805555555555</v>
-      </c>
       <c r="D7" s="8">
-        <v>1.0012037037037036</v>
+        <v>1.0011921296296296</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
@@ -704,24 +703,24 @@
         <v>4</v>
       </c>
       <c r="I7">
+        <f>1*60+42</f>
+        <v>102</v>
+      </c>
+      <c r="J7">
         <f>1*60+43</f>
         <v>103</v>
       </c>
-      <c r="J7">
-        <f>1*60+42</f>
-        <v>102</v>
-      </c>
       <c r="K7">
-        <f>1*60+44</f>
-        <v>104</v>
+        <f>1*60+43</f>
+        <v>103</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>102.66666666666667</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>0.81649658092772603</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -729,13 +728,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>1.0001273148148149</v>
+        <v>1.0001157407407408</v>
       </c>
       <c r="C8" s="4">
         <v>1.0001157407407408</v>
       </c>
       <c r="D8" s="8">
-        <v>1.0001273148148149</v>
+        <v>1.0001041666666666</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
@@ -743,19 +742,18 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <f>11</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <f>10</f>
         <v>10</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
@@ -770,7 +768,7 @@
         <v>1.0003703703703704</v>
       </c>
       <c r="C9" s="4">
-        <v>1.0003587962962963</v>
+        <v>1.0003703703703704</v>
       </c>
       <c r="D9" s="8">
         <v>1.0003587962962963</v>
@@ -785,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="J9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <f>31</f>
@@ -793,7 +791,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>31.333333333333332</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -805,13 +803,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0018055555555556</v>
+        <v>1.0017592592592592</v>
       </c>
       <c r="C10" s="5">
-        <v>1.0017939814814816</v>
+        <v>1.0017708333333333</v>
       </c>
       <c r="D10" s="9">
-        <v>1.0018287037037037</v>
+        <v>1.0017592592592592</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
@@ -819,28 +817,31 @@
         <v>7</v>
       </c>
       <c r="I10" s="1">
-        <f>2*60+36</f>
-        <v>156</v>
+        <f>2*60+32</f>
+        <v>152</v>
       </c>
       <c r="J10" s="1">
-        <f>2*60+35</f>
-        <v>155</v>
+        <f>2*60+33</f>
+        <v>153</v>
       </c>
       <c r="K10" s="1">
-        <f>2*60+38</f>
-        <v>158</v>
+        <f>2*60+32</f>
+        <v>152</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>156.33333333333334</v>
+        <v>152.33333333333334</v>
       </c>
       <c r="M10" s="1">
         <f>_xlfn.STDEV.P(I10:K10)</f>
-        <v>1.247219128924647</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>